--- a/data/trans_bre/DCD-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/DCD-Dificultad-trans_bre.xlsx
@@ -618,7 +618,7 @@
         <v>6.897006475118986</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13.5794181029159</v>
+        <v>13.57941810291589</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>1.554439731216622</v>
@@ -627,7 +627,7 @@
         <v>0.7260238786298271</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.560563577262588</v>
+        <v>0.5605635772625879</v>
       </c>
     </row>
     <row r="5">
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>8.561221841740041</v>
+        <v>8.64129441509149</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.085315117168902</v>
+        <v>4.188967011567525</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8.330545303729577</v>
+        <v>8.151272342725608</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.9604648166838675</v>
+        <v>0.9571988901696959</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3728219173600664</v>
+        <v>0.3794828641950691</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3056121203141967</v>
+        <v>0.2830534270038962</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>14.04004234874534</v>
+        <v>14.23677564748985</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.670237992459022</v>
+        <v>9.885225600903192</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>18.31110141572904</v>
+        <v>18.50413424934257</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2.301133845489997</v>
+        <v>2.318954455065773</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.199934022567488</v>
+        <v>1.168476292658622</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8678570164892083</v>
+        <v>0.8450279909424014</v>
       </c>
     </row>
     <row r="7">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>7.79667919515653</v>
+        <v>7.822880627389115</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>4.013499476393991</v>
+        <v>4.149905818314536</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>11.19673587866324</v>
+        <v>10.79254233909137</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.9815342559857589</v>
+        <v>0.9968038040187361</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.540957248597948</v>
+        <v>0.5311904648890482</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7136943162678878</v>
+        <v>0.7006053553254936</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>13.87730809867256</v>
+        <v>13.45123621970168</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>9.620967254395079</v>
+        <v>9.768677954064371</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>17.6189387947853</v>
+        <v>17.20242844851408</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.545988241730032</v>
+        <v>2.539053804726596</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.942115358050651</v>
+        <v>1.869357701116066</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.467261755024251</v>
+        <v>1.400500220753882</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
         <v>5.144542672668044</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12.70118400809601</v>
+        <v>12.70118400809602</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0.9592157675524745</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.171834954489872</v>
+        <v>3.262339441154507</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.496698168688376</v>
+        <v>2.666787641722181</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>9.964471139148289</v>
+        <v>10.15186449739657</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>0.3808163053312006</v>
+        <v>0.4183192805645271</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.4755380083588239</v>
+        <v>0.5189317385018271</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9819561831298783</v>
+        <v>1.013884581469597</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.928053223041877</v>
+        <v>8.93401365733274</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.67896381521961</v>
+        <v>8.009035546219234</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>15.53251292781591</v>
+        <v>15.73115016818493</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>1.7372087298208</v>
+        <v>1.66789000583912</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>2.541079699079867</v>
+        <v>2.923795202175778</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.083737056858889</v>
+        <v>2.075921354277622</v>
       </c>
     </row>
     <row r="13">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>4.011000079668289</v>
+        <v>4.179031903004994</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1767438145032029</v>
+        <v>0.5336518687568589</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>9.311106721268494</v>
+        <v>9.598709121916068</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.5707120352956849</v>
+        <v>0.5098142876380646</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.01978145865209601</v>
+        <v>0.05593142968092756</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7294317138268067</v>
+        <v>0.788764902214447</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>11.78349284889147</v>
+        <v>11.83316652700245</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.671904146359462</v>
+        <v>7.520498207788988</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>16.10465451739898</v>
+        <v>16.06303074225385</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>2.772047764262146</v>
+        <v>2.68386731197976</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.70821126079828</v>
+        <v>1.767223224364092</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.706277671642164</v>
+        <v>1.726053738780565</v>
       </c>
     </row>
     <row r="16">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>7.985559048459957</v>
+        <v>7.912674282994598</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.7931326402392</v>
+        <v>4.730714447492235</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>12.24523249245966</v>
+        <v>12.0068167418461</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>1.091341281164269</v>
+        <v>1.080565821436597</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.6433146329588606</v>
+        <v>0.6374909404581643</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8804243530458242</v>
+        <v>0.8750968781843447</v>
       </c>
     </row>
     <row r="18">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>11.03129668148739</v>
+        <v>11.05100370514076</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.687110390574404</v>
+        <v>7.786385094852487</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>15.4465145729679</v>
+        <v>15.33427399225769</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1.838915433650666</v>
+        <v>1.828325137847221</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.248957427999755</v>
+        <v>1.278535505049403</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.277864125778791</v>
+        <v>1.270272072796042</v>
       </c>
     </row>
     <row r="19">
